--- a/jpcore-r4/feature/swg1-「通常の文字列検索」に濁点・半濁点の処理を追記する/StructureDefinition-jp-medicationdispense.xlsx
+++ b/jpcore-r4/feature/swg1-「通常の文字列検索」に濁点・半濁点の処理を追記する/StructureDefinition-jp-medicationdispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4502" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4646" uniqueCount="761">
   <si>
     <t>Property</t>
   </si>
@@ -620,6 +620,10 @@
   </si>
   <si>
     <t>MedicationDispense.medication[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)</t>
   </si>
   <si>
     <t>What medication was supplied　医薬品</t>
@@ -647,6 +651,13 @@
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.code</t>
   </si>
   <si>
@@ -693,6 +704,24 @@
     <t>Element.extension</t>
   </si>
   <si>
+    <t>medicationCodeableConcept</t>
+  </si>
+  <si>
+    <t>What medication was supplied</t>
+  </si>
+  <si>
+    <t>Identifies the medication being administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
     <t>MedicationDispense.medication[x].coding</t>
   </si>
   <si>
@@ -726,12 +755,6 @@
     <t>MedicationDispense.medication[x].coding.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
     <t>MedicationDispense.medication[x].coding.extension</t>
   </si>
   <si>
@@ -872,6 +895,13 @@
   </si>
   <si>
     <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>medicationReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)
+</t>
   </si>
   <si>
     <t>MedicationDispense.subject</t>
@@ -2730,7 +2760,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN124"/>
+  <dimension ref="A1:AN128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2740,7 +2770,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="67.20703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.71875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -4628,16 +4658,16 @@
         <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -4666,25 +4696,23 @@
         <v>180</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>193</v>
@@ -4702,24 +4730,24 @@
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4745,10 +4773,10 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4799,7 +4827,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4817,7 +4845,7 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>77</v>
@@ -4831,7 +4859,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4857,10 +4885,10 @@
         <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>147</v>
@@ -4904,7 +4932,7 @@
         <v>134</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>77</v>
@@ -4913,7 +4941,7 @@
         <v>135</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4931,7 +4959,7 @@
         <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -4945,18 +4973,20 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>77</v>
@@ -4968,20 +4998,18 @@
         <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>77</v>
       </c>
@@ -5005,13 +5033,13 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -5029,13 +5057,13 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>77</v>
@@ -5044,24 +5072,24 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -5087,10 +5115,10 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -5141,7 +5169,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -5159,7 +5187,7 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -5173,7 +5201,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -5199,10 +5227,10 @@
         <v>131</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>147</v>
@@ -5246,7 +5274,7 @@
         <v>134</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>77</v>
@@ -5255,7 +5283,7 @@
         <v>135</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -5273,7 +5301,7 @@
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
@@ -5287,7 +5315,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5298,7 +5326,7 @@
         <v>86</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>77</v>
@@ -5310,19 +5338,19 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>100</v>
+        <v>224</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -5371,13 +5399,13 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>77</v>
@@ -5389,7 +5417,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -5398,12 +5426,12 @@
         <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5423,20 +5451,18 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>77</v>
@@ -5485,7 +5511,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -5497,13 +5523,13 @@
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -5512,23 +5538,23 @@
         <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>77</v>
@@ -5537,21 +5563,21 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>77</v>
       </c>
@@ -5587,37 +5613,37 @@
         <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -5626,12 +5652,12 @@
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5654,17 +5680,19 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="N26" t="s" s="2">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -5713,7 +5741,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5731,7 +5759,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -5740,12 +5768,12 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5768,20 +5796,18 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>257</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
       </c>
@@ -5829,7 +5855,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5847,7 +5873,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5856,12 +5882,12 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5869,7 +5895,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>86</v>
@@ -5884,19 +5910,17 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5945,7 +5969,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5963,7 +5987,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5972,12 +5996,12 @@
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5985,7 +6009,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>86</v>
@@ -6000,18 +6024,18 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>274</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
       </c>
@@ -6059,7 +6083,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -6074,24 +6098,24 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -6111,21 +6135,23 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
       </c>
@@ -6173,7 +6199,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -6188,10 +6214,10 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -6200,12 +6226,12 @@
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -6216,7 +6242,7 @@
         <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>77</v>
@@ -6225,21 +6251,23 @@
         <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>289</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
       </c>
@@ -6287,13 +6315,13 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>77</v>
@@ -6305,23 +6333,25 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="C32" t="s" s="2">
         <v>77</v>
       </c>
@@ -6330,7 +6360,7 @@
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>77</v>
@@ -6339,18 +6369,20 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>296</v>
+        <v>218</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -6399,13 +6431,13 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>294</v>
+        <v>193</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>77</v>
@@ -6414,24 +6446,24 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6451,18 +6483,20 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>283</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>224</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -6511,7 +6545,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>207</v>
+        <v>282</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -6523,38 +6557,38 @@
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -6566,16 +6600,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>131</v>
+        <v>292</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>210</v>
+        <v>293</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>211</v>
+        <v>294</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>147</v>
+        <v>286</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6625,25 +6659,25 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>213</v>
+        <v>291</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -6657,11 +6691,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6674,26 +6708,24 @@
         <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>131</v>
+        <v>298</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>77</v>
       </c>
@@ -6741,7 +6773,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6753,16 +6785,16 @@
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>129</v>
+        <v>301</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -6773,7 +6805,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6784,7 +6816,7 @@
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>77</v>
@@ -6796,18 +6828,16 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>186</v>
+        <v>304</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>310</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>77</v>
       </c>
@@ -6831,13 +6861,13 @@
         <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>311</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>312</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>77</v>
@@ -6855,13 +6885,13 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>77</v>
@@ -6870,10 +6900,10 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6887,7 +6917,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6895,7 +6925,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>86</v>
@@ -6910,13 +6940,13 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>315</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>316</v>
+        <v>221</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>317</v>
+        <v>222</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6967,10 +6997,10 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>314</v>
+        <v>210</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>86</v>
@@ -6979,13 +7009,13 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>318</v>
+        <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6999,18 +7029,18 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>77</v>
@@ -7022,16 +7052,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>321</v>
+        <v>131</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>322</v>
+        <v>213</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>323</v>
+        <v>214</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>277</v>
+        <v>147</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -7081,25 +7111,25 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>320</v>
+        <v>216</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>324</v>
+        <v>211</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -7113,11 +7143,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -7130,24 +7160,26 @@
         <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>326</v>
+        <v>131</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
       </c>
@@ -7195,7 +7227,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -7207,27 +7239,27 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>331</v>
+        <v>129</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>333</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7253,15 +7285,15 @@
         <v>186</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
       </c>
@@ -7288,10 +7320,10 @@
         <v>180</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -7309,7 +7341,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -7327,21 +7359,21 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>341</v>
+        <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>342</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7364,17 +7396,15 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -7423,10 +7453,10 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>86</v>
@@ -7438,24 +7468,24 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>349</v>
+        <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>350</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7478,15 +7508,17 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>330</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>224</v>
+        <v>331</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -7535,7 +7567,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>207</v>
+        <v>329</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7547,13 +7579,13 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>208</v>
+        <v>333</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -7567,11 +7599,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -7590,16 +7622,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>131</v>
+        <v>335</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>210</v>
+        <v>336</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>211</v>
+        <v>337</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>147</v>
+        <v>338</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7637,19 +7669,19 @@
         <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>213</v>
+        <v>334</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7661,27 +7693,27 @@
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>339</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>208</v>
+        <v>340</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7689,7 +7721,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>86</v>
@@ -7701,23 +7733,21 @@
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>354</v>
+        <v>186</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
       </c>
@@ -7741,13 +7771,13 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>348</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -7765,7 +7795,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7783,21 +7813,21 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7805,39 +7835,37 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>106</v>
+        <v>353</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P45" t="s" s="2">
-        <v>366</v>
-      </c>
+      <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
         <v>77</v>
       </c>
@@ -7857,13 +7885,13 @@
         <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>367</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>77</v>
@@ -7881,7 +7909,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7899,21 +7927,21 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7921,7 +7949,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>86</v>
@@ -7933,21 +7961,19 @@
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>373</v>
+        <v>221</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>374</v>
+        <v>222</v>
       </c>
       <c r="M46" s="2"/>
-      <c r="N46" t="s" s="2">
-        <v>375</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7995,7 +8021,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>376</v>
+        <v>210</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -8007,13 +8033,13 @@
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>377</v>
+        <v>211</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -8022,23 +8048,23 @@
         <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>378</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
@@ -8047,21 +8073,21 @@
         <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>380</v>
+        <v>213</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>77</v>
       </c>
@@ -8097,37 +8123,37 @@
         <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>383</v>
+        <v>216</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>385</v>
+        <v>211</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -8136,12 +8162,12 @@
         <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>378</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -8164,19 +8190,19 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>106</v>
+        <v>363</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -8225,7 +8251,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -8243,7 +8269,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -8252,12 +8278,12 @@
         <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8268,34 +8294,36 @@
         <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>344</v>
+        <v>106</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="Q49" t="s" s="2">
         <v>77</v>
       </c>
@@ -8315,13 +8343,13 @@
         <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>77</v>
+        <v>376</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -8339,7 +8367,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -8357,7 +8385,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -8366,12 +8394,12 @@
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>397</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8379,7 +8407,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>86</v>
@@ -8394,16 +8422,18 @@
         <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>399</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>77</v>
       </c>
@@ -8451,7 +8481,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8469,21 +8499,21 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>403</v>
+        <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>404</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8503,19 +8533,21 @@
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>399</v>
+        <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
       </c>
@@ -8563,7 +8595,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8572,30 +8604,30 @@
         <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>393</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>408</v>
+        <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>403</v>
+        <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>404</v>
+        <v>387</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8603,7 +8635,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>86</v>
@@ -8615,21 +8647,23 @@
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>321</v>
+        <v>106</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
@@ -8677,7 +8711,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8695,21 +8729,21 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>414</v>
+        <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>415</v>
+        <v>387</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8720,7 +8754,7 @@
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>77</v>
@@ -8732,16 +8766,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>417</v>
+        <v>353</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>277</v>
+        <v>356</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8791,13 +8825,13 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>77</v>
@@ -8809,21 +8843,21 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>421</v>
+        <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>77</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8834,7 +8868,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -8843,20 +8877,18 @@
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8905,13 +8937,13 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>77</v>
@@ -8920,24 +8952,24 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>427</v>
+        <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>77</v>
+        <v>412</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>429</v>
+        <v>413</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8945,10 +8977,10 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>77</v>
@@ -8960,17 +8992,15 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
@@ -9019,13 +9049,13 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>77</v>
@@ -9034,24 +9064,24 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>77</v>
+        <v>417</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>77</v>
+        <v>412</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>77</v>
+        <v>413</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -9074,15 +9104,17 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>330</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>77</v>
@@ -9131,7 +9163,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>207</v>
+        <v>419</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -9143,31 +9175,31 @@
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>208</v>
+        <v>422</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>77</v>
+        <v>423</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>77</v>
+        <v>424</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -9186,16 +9218,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>131</v>
+        <v>426</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>210</v>
+        <v>427</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>211</v>
+        <v>428</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>147</v>
+        <v>286</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -9233,19 +9265,19 @@
         <v>77</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>213</v>
+        <v>425</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -9257,19 +9289,19 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>208</v>
+        <v>429</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>77</v>
+        <v>430</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -9277,11 +9309,9 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
         <v>77</v>
       </c>
@@ -9290,7 +9320,7 @@
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>77</v>
@@ -9302,15 +9332,17 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>77</v>
@@ -9359,7 +9391,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>213</v>
+        <v>431</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9371,13 +9403,13 @@
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>77</v>
+        <v>436</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>77</v>
+        <v>437</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -9386,16 +9418,14 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>77</v>
+        <v>438</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
         <v>77</v>
       </c>
@@ -9404,7 +9434,7 @@
         <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>77</v>
@@ -9416,15 +9446,17 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>77</v>
@@ -9473,7 +9505,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>213</v>
+        <v>439</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9485,13 +9517,13 @@
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>77</v>
+        <v>444</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -9505,11 +9537,9 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>77</v>
       </c>
@@ -9518,7 +9548,7 @@
         <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>77</v>
@@ -9530,13 +9560,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>448</v>
+        <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>450</v>
+        <v>209</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9587,25 +9617,25 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -9619,20 +9649,18 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>77</v>
@@ -9644,15 +9672,17 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>452</v>
+        <v>131</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>453</v>
+        <v>213</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>77</v>
@@ -9689,19 +9719,19 @@
         <v>77</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9719,7 +9749,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -9733,43 +9763,41 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B62" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="C62" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>131</v>
+        <v>449</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>304</v>
+        <v>450</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>77</v>
       </c>
@@ -9817,7 +9845,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>306</v>
+        <v>216</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9835,7 +9863,7 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -9849,9 +9877,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B63" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="C63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9869,21 +9899,19 @@
         <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>460</v>
-      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9931,25 +9959,25 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>461</v>
+        <v>216</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>462</v>
+        <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9958,23 +9986,25 @@
         <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>463</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B64" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="C64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>77</v>
@@ -9983,21 +10013,19 @@
         <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>88</v>
+        <v>457</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>467</v>
-      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>77</v>
       </c>
@@ -10045,25 +10073,25 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>468</v>
+        <v>216</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>462</v>
+        <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -10072,14 +10100,16 @@
         <v>77</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>469</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B65" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="C65" t="s" s="2">
         <v>77</v>
       </c>
@@ -10088,7 +10118,7 @@
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>77</v>
@@ -10097,23 +10127,19 @@
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>186</v>
+        <v>461</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
@@ -10137,13 +10163,13 @@
         <v>77</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>475</v>
+        <v>77</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>476</v>
+        <v>77</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
@@ -10161,7 +10187,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>477</v>
+        <v>216</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -10173,13 +10199,13 @@
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>462</v>
+        <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -10188,44 +10214,48 @@
         <v>77</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>478</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>480</v>
+        <v>313</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
       </c>
@@ -10273,25 +10303,25 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>482</v>
+        <v>315</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>462</v>
+        <v>129</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -10300,12 +10330,12 @@
         <v>77</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>478</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10313,7 +10343,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>86</v>
@@ -10328,19 +10358,17 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -10389,7 +10417,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10407,7 +10435,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -10416,12 +10444,12 @@
         <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>77</v>
+        <v>472</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10429,7 +10457,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>86</v>
@@ -10441,19 +10469,21 @@
         <v>77</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>224</v>
+        <v>474</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>225</v>
+        <v>475</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
       </c>
@@ -10501,7 +10531,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>207</v>
+        <v>477</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10513,13 +10543,13 @@
         <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>208</v>
+        <v>471</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -10528,16 +10558,16 @@
         <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>77</v>
+        <v>478</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10553,21 +10583,23 @@
         <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>210</v>
+        <v>480</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>211</v>
+        <v>481</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
       </c>
@@ -10591,31 +10623,31 @@
         <v>77</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>77</v>
+        <v>484</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>77</v>
+        <v>485</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>213</v>
+        <v>486</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10627,13 +10659,13 @@
         <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>208</v>
+        <v>471</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -10642,48 +10674,44 @@
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>77</v>
+        <v>487</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>304</v>
+        <v>489</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>77</v>
       </c>
@@ -10731,25 +10759,25 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>306</v>
+        <v>491</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>129</v>
+        <v>471</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10758,12 +10786,12 @@
         <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>77</v>
+        <v>487</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10771,10 +10799,10 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>77</v>
@@ -10786,15 +10814,17 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>399</v>
+        <v>493</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
         <v>497</v>
       </c>
@@ -10851,7 +10881,7 @@
         <v>78</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>77</v>
@@ -10897,21 +10927,19 @@
         <v>77</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>501</v>
+        <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>502</v>
+        <v>221</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>503</v>
+        <v>222</v>
       </c>
       <c r="M72" s="2"/>
-      <c r="N72" t="s" s="2">
-        <v>504</v>
-      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>77</v>
       </c>
@@ -10959,7 +10987,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>505</v>
+        <v>210</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10971,13 +10999,13 @@
         <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>506</v>
+        <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>507</v>
+        <v>211</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10991,18 +11019,18 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>77</v>
@@ -11014,15 +11042,17 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>77</v>
@@ -11059,37 +11089,37 @@
         <v>77</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -11103,11 +11133,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>144</v>
+        <v>312</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -11120,24 +11150,26 @@
         <v>77</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>210</v>
+        <v>313</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>211</v>
+        <v>314</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="N74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
       </c>
@@ -11173,19 +11205,19 @@
         <v>77</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>213</v>
+        <v>315</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -11203,7 +11235,7 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>208</v>
+        <v>129</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -11217,7 +11249,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11228,7 +11260,7 @@
         <v>78</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>77</v>
@@ -11240,16 +11272,18 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>511</v>
+        <v>408</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
       </c>
@@ -11297,13 +11331,13 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>77</v>
@@ -11315,7 +11349,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -11329,7 +11363,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11352,19 +11386,17 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -11413,7 +11445,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11425,13 +11457,13 @@
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>98</v>
+        <v>515</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -11445,7 +11477,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11465,16 +11497,16 @@
         <v>77</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>517</v>
+        <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>525</v>
+        <v>221</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>526</v>
+        <v>222</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11525,7 +11557,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>527</v>
+        <v>210</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11537,13 +11569,13 @@
         <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>523</v>
+        <v>211</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
@@ -11557,18 +11589,18 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>77</v>
@@ -11577,23 +11609,21 @@
         <v>77</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>354</v>
+        <v>131</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>529</v>
+        <v>213</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>530</v>
+        <v>214</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>532</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>77</v>
       </c>
@@ -11629,37 +11659,37 @@
         <v>77</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>533</v>
+        <v>216</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>534</v>
+        <v>211</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -11673,7 +11703,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11696,20 +11726,16 @@
         <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>354</v>
+        <v>520</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>532</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>77</v>
       </c>
@@ -11757,7 +11783,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11775,7 +11801,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -11789,7 +11815,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11812,16 +11838,20 @@
         <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>106</v>
+        <v>526</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>530</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>77</v>
       </c>
@@ -11845,13 +11875,13 @@
         <v>77</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>542</v>
+        <v>77</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>543</v>
+        <v>77</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>77</v>
@@ -11869,7 +11899,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11887,7 +11917,7 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11901,7 +11931,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11924,22 +11954,20 @@
         <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P81" t="s" s="2">
-        <v>549</v>
-      </c>
+      <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
         <v>77</v>
       </c>
@@ -11983,7 +12011,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -12001,7 +12029,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -12015,7 +12043,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12038,16 +12066,20 @@
         <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>517</v>
+        <v>363</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
       </c>
@@ -12095,7 +12127,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -12113,7 +12145,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -12127,7 +12159,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12150,16 +12182,20 @@
         <v>87</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>77</v>
       </c>
@@ -12207,7 +12243,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -12225,7 +12261,7 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
@@ -12239,7 +12275,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12262,13 +12298,13 @@
         <v>87</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>354</v>
+        <v>106</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12295,13 +12331,13 @@
         <v>77</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>77</v>
+        <v>551</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>77</v>
+        <v>552</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>77</v>
@@ -12319,7 +12355,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -12337,7 +12373,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -12351,7 +12387,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12374,20 +12410,22 @@
         <v>87</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>106</v>
+        <v>526</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>558</v>
+      </c>
       <c r="Q85" t="s" s="2">
         <v>77</v>
       </c>
@@ -12407,13 +12445,13 @@
         <v>77</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>542</v>
+        <v>77</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>543</v>
+        <v>77</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>77</v>
@@ -12431,7 +12469,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12449,7 +12487,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -12463,7 +12501,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12474,7 +12512,7 @@
         <v>78</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>77</v>
@@ -12486,17 +12524,15 @@
         <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>106</v>
+        <v>526</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>77</v>
@@ -12521,11 +12557,13 @@
         <v>77</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="X86" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y86" t="s" s="2">
-        <v>569</v>
+        <v>77</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>77</v>
@@ -12543,13 +12581,13 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>77</v>
@@ -12561,7 +12599,7 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>208</v>
+        <v>543</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -12575,7 +12613,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12586,7 +12624,7 @@
         <v>78</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>77</v>
@@ -12598,17 +12636,15 @@
         <v>87</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>572</v>
+        <v>363</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>575</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>77</v>
@@ -12657,13 +12693,13 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>77</v>
@@ -12675,7 +12711,7 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>208</v>
+        <v>543</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -12689,7 +12725,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12700,7 +12736,7 @@
         <v>78</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>77</v>
@@ -12712,20 +12748,16 @@
         <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>106</v>
+        <v>363</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>581</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>77</v>
       </c>
@@ -12749,13 +12781,13 @@
         <v>77</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>582</v>
+        <v>77</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>583</v>
+        <v>77</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>77</v>
@@ -12773,13 +12805,13 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>77</v>
@@ -12791,7 +12823,7 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>585</v>
+        <v>543</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -12805,7 +12837,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12828,13 +12860,13 @@
         <v>87</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>587</v>
+        <v>106</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>588</v>
+        <v>549</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12861,13 +12893,13 @@
         <v>77</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>77</v>
+        <v>551</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>77</v>
+        <v>552</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
@@ -12885,7 +12917,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12903,7 +12935,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>591</v>
+        <v>554</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12917,7 +12949,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12928,7 +12960,7 @@
         <v>78</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>77</v>
@@ -12940,16 +12972,16 @@
         <v>87</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12975,13 +13007,11 @@
         <v>77</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>596</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -12999,13 +13029,13 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>77</v>
@@ -13017,7 +13047,7 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>599</v>
+        <v>211</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -13031,7 +13061,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13042,7 +13072,7 @@
         <v>78</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>77</v>
@@ -13051,18 +13081,20 @@
         <v>77</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>88</v>
+        <v>581</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>224</v>
+        <v>582</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M91" s="2"/>
+        <v>583</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>584</v>
+      </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>77</v>
@@ -13111,25 +13143,25 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>207</v>
+        <v>585</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
@@ -13143,11 +13175,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -13163,21 +13195,23 @@
         <v>77</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>210</v>
+        <v>587</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>211</v>
+        <v>588</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>590</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>77</v>
       </c>
@@ -13201,31 +13235,31 @@
         <v>77</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>77</v>
+        <v>591</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>77</v>
+        <v>592</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="AC92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>213</v>
+        <v>593</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -13237,13 +13271,13 @@
         <v>77</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>208</v>
+        <v>594</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -13257,7 +13291,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13268,7 +13302,7 @@
         <v>78</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>77</v>
@@ -13280,20 +13314,16 @@
         <v>87</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>215</v>
+        <v>596</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>77</v>
       </c>
@@ -13341,13 +13371,13 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>220</v>
+        <v>599</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>77</v>
@@ -13359,7 +13389,7 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>221</v>
+        <v>600</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -13368,12 +13398,12 @@
         <v>77</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13393,18 +13423,20 @@
         <v>77</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>224</v>
+        <v>602</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M94" s="2"/>
+        <v>603</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>604</v>
+      </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>77</v>
@@ -13429,13 +13461,13 @@
         <v>77</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>77</v>
+        <v>605</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>77</v>
+        <v>606</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>77</v>
@@ -13453,7 +13485,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>207</v>
+        <v>607</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13465,13 +13497,13 @@
         <v>77</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>208</v>
+        <v>608</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -13485,18 +13517,18 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>77</v>
@@ -13508,17 +13540,15 @@
         <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>77</v>
@@ -13555,37 +13585,37 @@
         <v>77</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="AC95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD95" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -13599,18 +13629,18 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>77</v>
@@ -13619,23 +13649,21 @@
         <v>77</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>77</v>
       </c>
@@ -13671,37 +13699,37 @@
         <v>77</v>
       </c>
       <c r="AA96" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AC96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD96" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -13710,12 +13738,12 @@
         <v>77</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13726,7 +13754,7 @@
         <v>78</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>77</v>
@@ -13738,18 +13766,20 @@
         <v>87</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>236</v>
+        <v>612</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>237</v>
+        <v>613</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>614</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>77</v>
       </c>
@@ -13797,13 +13827,13 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>77</v>
@@ -13815,7 +13845,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13824,12 +13854,12 @@
         <v>77</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13837,7 +13867,7 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>86</v>
@@ -13849,21 +13879,19 @@
         <v>77</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="M98" s="2"/>
-      <c r="N98" t="s" s="2">
-        <v>245</v>
-      </c>
+      <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>77</v>
       </c>
@@ -13911,7 +13939,7 @@
         <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
@@ -13923,13 +13951,13 @@
         <v>77</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
@@ -13938,23 +13966,23 @@
         <v>77</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>77</v>
@@ -13963,21 +13991,21 @@
         <v>77</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>77</v>
       </c>
@@ -14013,37 +14041,37 @@
         <v>77</v>
       </c>
       <c r="AA99" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AC99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD99" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>
@@ -14052,12 +14080,12 @@
         <v>77</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14065,7 +14093,7 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F100" t="s" s="2">
         <v>86</v>
@@ -14080,19 +14108,19 @@
         <v>87</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>257</v>
+        <v>100</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>77</v>
@@ -14141,7 +14169,7 @@
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>78</v>
@@ -14159,7 +14187,7 @@
         <v>77</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>77</v>
@@ -14168,12 +14196,12 @@
         <v>77</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>264</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14199,17 +14227,15 @@
         <v>88</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>77</v>
       </c>
@@ -14257,7 +14283,7 @@
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>78</v>
@@ -14275,7 +14301,7 @@
         <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -14284,12 +14310,12 @@
         <v>77</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>272</v>
+        <v>248</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14297,7 +14323,7 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F102" t="s" s="2">
         <v>86</v>
@@ -14312,18 +14338,18 @@
         <v>87</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>615</v>
+        <v>106</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>616</v>
+        <v>250</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O102" t="s" s="2">
         <v>77</v>
       </c>
@@ -14347,13 +14373,13 @@
         <v>77</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>619</v>
+        <v>77</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>620</v>
+        <v>77</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>77</v>
@@ -14371,7 +14397,7 @@
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>621</v>
+        <v>253</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>78</v>
@@ -14389,7 +14415,7 @@
         <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>622</v>
+        <v>254</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -14398,12 +14424,12 @@
         <v>77</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>623</v>
+        <v>255</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14426,19 +14452,17 @@
         <v>87</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>625</v>
+        <v>257</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>627</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>628</v>
+        <v>259</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>77</v>
@@ -14463,13 +14487,13 @@
         <v>77</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>629</v>
+        <v>77</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>630</v>
+        <v>77</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>77</v>
@@ -14487,7 +14511,7 @@
         <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>631</v>
+        <v>260</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>78</v>
@@ -14505,7 +14529,7 @@
         <v>77</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>632</v>
+        <v>261</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>77</v>
@@ -14514,12 +14538,12 @@
         <v>77</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>633</v>
+        <v>262</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14542,19 +14566,19 @@
         <v>87</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>186</v>
+        <v>264</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>635</v>
+        <v>265</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>636</v>
+        <v>266</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>637</v>
+        <v>268</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>77</v>
@@ -14579,13 +14603,13 @@
         <v>77</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>638</v>
+        <v>77</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>639</v>
+        <v>77</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>77</v>
@@ -14603,7 +14627,7 @@
         <v>77</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>640</v>
+        <v>269</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>78</v>
@@ -14621,7 +14645,7 @@
         <v>77</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>641</v>
+        <v>270</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>77</v>
@@ -14630,12 +14654,12 @@
         <v>77</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>642</v>
+        <v>271</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14658,19 +14682,19 @@
         <v>87</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>644</v>
+        <v>273</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>645</v>
+        <v>274</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>646</v>
+        <v>275</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>647</v>
+        <v>276</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>77</v>
@@ -14695,13 +14719,13 @@
         <v>77</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>648</v>
+        <v>77</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>649</v>
+        <v>77</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>77</v>
@@ -14719,7 +14743,7 @@
         <v>77</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>650</v>
+        <v>277</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>78</v>
@@ -14737,7 +14761,7 @@
         <v>77</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>651</v>
+        <v>278</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>77</v>
@@ -14746,12 +14770,12 @@
         <v>77</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>652</v>
+        <v>279</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>653</v>
+        <v>623</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14762,7 +14786,7 @@
         <v>78</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>77</v>
@@ -14774,15 +14798,17 @@
         <v>87</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>501</v>
+        <v>624</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>654</v>
+        <v>625</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="M106" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>627</v>
+      </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>77</v>
@@ -14807,13 +14833,13 @@
         <v>77</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>77</v>
+        <v>628</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>77</v>
+        <v>629</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>77</v>
@@ -14831,13 +14857,13 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>656</v>
+        <v>630</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>77</v>
@@ -14849,7 +14875,7 @@
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>77</v>
+        <v>631</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>77</v>
@@ -14858,12 +14884,12 @@
         <v>77</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>657</v>
+        <v>632</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>658</v>
+        <v>633</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14883,19 +14909,23 @@
         <v>77</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>224</v>
+        <v>634</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>637</v>
+      </c>
       <c r="O107" t="s" s="2">
         <v>77</v>
       </c>
@@ -14919,13 +14949,13 @@
         <v>77</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>77</v>
+        <v>638</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>77</v>
+        <v>639</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>77</v>
@@ -14943,7 +14973,7 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>207</v>
+        <v>640</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
@@ -14955,13 +14985,13 @@
         <v>77</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>208</v>
+        <v>641</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14970,23 +15000,23 @@
         <v>77</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>77</v>
+        <v>642</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>77</v>
@@ -14995,21 +15025,23 @@
         <v>77</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>210</v>
+        <v>644</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>211</v>
+        <v>645</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N108" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>646</v>
+      </c>
       <c r="O108" t="s" s="2">
         <v>77</v>
       </c>
@@ -15033,49 +15065,49 @@
         <v>77</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>77</v>
+        <v>647</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>77</v>
+        <v>648</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="AC108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>213</v>
+        <v>649</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>208</v>
+        <v>650</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -15084,12 +15116,12 @@
         <v>77</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>77</v>
+        <v>651</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15115,14 +15147,16 @@
         <v>186</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="M109" s="2"/>
+        <v>654</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>655</v>
+      </c>
       <c r="N109" t="s" s="2">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>77</v>
@@ -15150,10 +15184,10 @@
         <v>180</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>77</v>
@@ -15171,7 +15205,7 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>78</v>
@@ -15189,7 +15223,7 @@
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>77</v>
+        <v>660</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -15198,12 +15232,12 @@
         <v>77</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15214,7 +15248,7 @@
         <v>78</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>77</v>
@@ -15226,20 +15260,16 @@
         <v>87</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>669</v>
+        <v>510</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>673</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>77</v>
       </c>
@@ -15287,13 +15317,13 @@
         <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>77</v>
@@ -15305,7 +15335,7 @@
         <v>77</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>651</v>
+        <v>77</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>77</v>
@@ -15314,12 +15344,12 @@
         <v>77</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>675</v>
+        <v>666</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15339,23 +15369,19 @@
         <v>77</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>677</v>
+        <v>88</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>678</v>
+        <v>221</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>681</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>77</v>
       </c>
@@ -15403,7 +15429,7 @@
         <v>77</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>682</v>
+        <v>210</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>78</v>
@@ -15415,13 +15441,13 @@
         <v>77</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>683</v>
+        <v>211</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>77</v>
@@ -15430,23 +15456,23 @@
         <v>77</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>684</v>
+        <v>77</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>77</v>
@@ -15455,23 +15481,21 @@
         <v>77</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>686</v>
+        <v>131</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>687</v>
+        <v>213</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>688</v>
+        <v>214</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>690</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
         <v>77</v>
       </c>
@@ -15507,37 +15531,37 @@
         <v>77</v>
       </c>
       <c r="AA112" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AC112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD112" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>691</v>
+        <v>216</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>692</v>
+        <v>211</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>77</v>
@@ -15546,12 +15570,12 @@
         <v>77</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>693</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>694</v>
+        <v>669</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15574,19 +15598,17 @@
         <v>87</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>344</v>
+        <v>186</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>695</v>
+        <v>670</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>697</v>
-      </c>
+        <v>671</v>
+      </c>
+      <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>698</v>
+        <v>672</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>77</v>
@@ -15611,13 +15633,13 @@
         <v>77</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>77</v>
+        <v>673</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>77</v>
+        <v>674</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>77</v>
@@ -15635,7 +15657,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>699</v>
+        <v>675</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>78</v>
@@ -15653,7 +15675,7 @@
         <v>77</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>700</v>
+        <v>77</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>77</v>
@@ -15662,12 +15684,12 @@
         <v>77</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>77</v>
+        <v>676</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>701</v>
+        <v>677</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15690,17 +15712,19 @@
         <v>87</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>344</v>
+        <v>678</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>702</v>
+        <v>679</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="M114" s="2"/>
+        <v>680</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>681</v>
+      </c>
       <c r="N114" t="s" s="2">
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>77</v>
@@ -15749,7 +15773,7 @@
         <v>77</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>705</v>
+        <v>683</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>78</v>
@@ -15767,7 +15791,7 @@
         <v>77</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>700</v>
+        <v>660</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>77</v>
@@ -15776,12 +15800,12 @@
         <v>77</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>77</v>
+        <v>684</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>706</v>
+        <v>685</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15801,19 +15825,23 @@
         <v>77</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>295</v>
+        <v>686</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>708</v>
-      </c>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
+        <v>688</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>690</v>
+      </c>
       <c r="O115" t="s" s="2">
         <v>77</v>
       </c>
@@ -15861,7 +15889,7 @@
         <v>77</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>78</v>
@@ -15879,21 +15907,21 @@
         <v>77</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>710</v>
+        <v>77</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>77</v>
+        <v>693</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15913,19 +15941,23 @@
         <v>77</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>88</v>
+        <v>695</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>224</v>
+        <v>696</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
+        <v>697</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>699</v>
+      </c>
       <c r="O116" t="s" s="2">
         <v>77</v>
       </c>
@@ -15973,7 +16005,7 @@
         <v>77</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>207</v>
+        <v>700</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>78</v>
@@ -15985,13 +16017,13 @@
         <v>77</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>208</v>
+        <v>701</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>77</v>
@@ -16000,23 +16032,23 @@
         <v>77</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>77</v>
+        <v>702</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>77</v>
@@ -16025,21 +16057,23 @@
         <v>77</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>131</v>
+        <v>353</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>210</v>
+        <v>704</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>211</v>
+        <v>705</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N117" s="2"/>
+        <v>706</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>707</v>
+      </c>
       <c r="O117" t="s" s="2">
         <v>77</v>
       </c>
@@ -16087,25 +16121,25 @@
         <v>77</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>213</v>
+        <v>708</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>208</v>
+        <v>709</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>77</v>
@@ -16119,42 +16153,40 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I118" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>131</v>
+        <v>353</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>304</v>
+        <v>711</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>148</v>
+        <v>713</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>77</v>
@@ -16203,25 +16235,25 @@
         <v>77</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>306</v>
+        <v>714</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>129</v>
+        <v>709</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>77</v>
@@ -16235,7 +16267,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16243,7 +16275,7 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F119" t="s" s="2">
         <v>86</v>
@@ -16258,13 +16290,13 @@
         <v>77</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16315,10 +16347,10 @@
         <v>77</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>86</v>
@@ -16333,13 +16365,13 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>77</v>
+        <v>719</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>77</v>
@@ -16347,7 +16379,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16370,17 +16402,15 @@
         <v>77</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>719</v>
+        <v>221</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>720</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>721</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M120" s="2"/>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>77</v>
@@ -16405,13 +16435,13 @@
         <v>77</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>722</v>
+        <v>77</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>723</v>
+        <v>77</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>77</v>
@@ -16429,7 +16459,7 @@
         <v>77</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>718</v>
+        <v>210</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>78</v>
@@ -16441,31 +16471,31 @@
         <v>77</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>340</v>
+        <v>211</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>724</v>
+        <v>77</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>725</v>
+        <v>77</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -16484,16 +16514,16 @@
         <v>77</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>727</v>
+        <v>213</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>728</v>
+        <v>214</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>337</v>
+        <v>147</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
@@ -16519,13 +16549,13 @@
         <v>77</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>729</v>
+        <v>77</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>730</v>
+        <v>77</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>77</v>
@@ -16543,7 +16573,7 @@
         <v>77</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>726</v>
+        <v>216</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>78</v>
@@ -16555,19 +16585,19 @@
         <v>77</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>731</v>
+        <v>211</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>732</v>
+        <v>77</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>77</v>
@@ -16575,11 +16605,11 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -16592,24 +16622,26 @@
         <v>77</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>734</v>
+        <v>131</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>735</v>
+        <v>313</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>736</v>
+        <v>314</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N122" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O122" t="s" s="2">
         <v>77</v>
       </c>
@@ -16657,7 +16689,7 @@
         <v>77</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>733</v>
+        <v>315</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>78</v>
@@ -16669,19 +16701,19 @@
         <v>77</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>737</v>
+        <v>129</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>738</v>
+        <v>77</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>77</v>
@@ -16689,18 +16721,18 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>740</v>
+        <v>77</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>77</v>
@@ -16712,17 +16744,15 @@
         <v>77</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>741</v>
+        <v>264</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>742</v>
+        <v>724</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>743</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>744</v>
-      </c>
+        <v>725</v>
+      </c>
+      <c r="M123" s="2"/>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>77</v>
@@ -16771,13 +16801,13 @@
         <v>77</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>77</v>
@@ -16789,7 +16819,7 @@
         <v>77</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>745</v>
+        <v>726</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>77</v>
@@ -16803,7 +16833,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>746</v>
+        <v>727</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16814,7 +16844,7 @@
         <v>78</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>77</v>
@@ -16826,16 +16856,16 @@
         <v>77</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>747</v>
+        <v>186</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>748</v>
+        <v>728</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16861,13 +16891,13 @@
         <v>77</v>
       </c>
       <c r="W124" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>77</v>
+        <v>731</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>77</v>
+        <v>732</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>77</v>
@@ -16885,13 +16915,13 @@
         <v>77</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>746</v>
+        <v>727</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>77</v>
@@ -16903,15 +16933,471 @@
         <v>77</v>
       </c>
       <c r="AK124" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="AN124" t="s" s="2">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N125" s="2"/>
+      <c r="O125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P125" s="2"/>
+      <c r="Q125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N126" s="2"/>
+      <c r="O126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P126" s="2"/>
+      <c r="Q126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="AN126" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="K127" t="s" s="2">
         <v>751</v>
       </c>
-      <c r="AL124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN124" t="s" s="2">
+      <c r="L127" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="N127" s="2"/>
+      <c r="O127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P127" s="2"/>
+      <c r="Q127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="N128" s="2"/>
+      <c r="O128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P128" s="2"/>
+      <c r="Q128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN128" t="s" s="2">
         <v>77</v>
       </c>
     </row>
